--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -735,7 +735,7 @@
     <t>ddccComposition</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
+    <t xml:space="preserve">Composition {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCComposition}
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
+    <t xml:space="preserve">Patient {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient}
 </t>
   </si>
   <si>
@@ -784,7 +784,7 @@
     <t>ddccOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization}
+    <t xml:space="preserve">Organization {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization}
 </t>
   </si>
   <si>
@@ -807,7 +807,7 @@
     <t>ddccImmunization</t>
   </si>
   <si>
-    <t xml:space="preserve">Immunization {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
+    <t xml:space="preserve">Immunization {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunization}
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>ddccImmunizationRecommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">ImmunizationRecommendation {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
+    <t xml:space="preserve">ImmunizationRecommendation {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCImmunizationRecommendation}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ddccQR</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR}
+    <t xml:space="preserve">DocumentReference {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReferenceQR}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8352" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8352" uniqueCount="273">
   <si>
     <t>Path</t>
   </si>
@@ -462,8 +462,11 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:resource}
+    <t xml:space="preserve">profile:resource.resolve()}
 </t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
@@ -1061,7 +1064,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -2929,7 +2932,7 @@
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>136</v>
@@ -2944,7 +2947,7 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3070,7 +3073,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3181,7 +3184,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3294,7 +3297,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3320,10 +3323,10 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3374,7 +3377,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3403,7 +3406,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3429,13 +3432,13 @@
         <v>63</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3485,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3514,7 +3517,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3537,13 +3540,13 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3594,7 +3597,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3623,7 +3626,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3649,10 +3652,10 @@
         <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3703,7 +3706,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3712,7 +3715,7 @@
         <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>61</v>
@@ -3732,7 +3735,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3841,7 +3844,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3952,7 +3955,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4065,7 +4068,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4091,13 +4094,13 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4126,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4147,7 +4150,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4176,7 +4179,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4199,16 +4202,16 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4258,7 +4261,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4287,7 +4290,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4313,10 +4316,10 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4367,7 +4370,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4376,7 +4379,7 @@
         <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>61</v>
@@ -4396,7 +4399,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4505,7 +4508,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4616,7 +4619,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4729,7 +4732,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4755,10 +4758,10 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4788,10 +4791,10 @@
         <v>89</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4809,7 +4812,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -4838,7 +4841,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4864,13 +4867,13 @@
         <v>63</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4920,7 +4923,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -4949,7 +4952,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4975,10 +4978,10 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5029,7 +5032,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5058,7 +5061,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5084,10 +5087,10 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5138,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5193,10 +5196,10 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5247,7 +5250,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5302,10 +5305,10 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5356,7 +5359,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5411,10 +5414,10 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5465,7 +5468,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5474,7 +5477,7 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>61</v>
@@ -5494,7 +5497,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5603,7 +5606,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5714,7 +5717,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5827,7 +5830,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5853,10 +5856,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5907,7 +5910,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5962,10 +5965,10 @@
         <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6016,7 +6019,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6045,7 +6048,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6071,13 +6074,13 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6127,7 +6130,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6156,7 +6159,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6182,13 +6185,13 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6238,7 +6241,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6267,7 +6270,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6290,16 +6293,16 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6349,7 +6352,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6381,7 +6384,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
@@ -6472,7 +6475,7 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>40</v>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6598,7 +6601,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6709,7 +6712,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6822,7 +6825,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6848,10 +6851,10 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6902,7 +6905,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -6931,7 +6934,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6957,13 +6960,13 @@
         <v>63</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7013,7 +7016,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7042,7 +7045,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7065,16 +7068,16 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7124,7 +7127,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7136,16 +7139,16 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7153,7 +7156,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7179,10 +7182,10 @@
         <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7233,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7242,7 +7245,7 @@
         <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>61</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7371,7 +7374,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7482,7 +7485,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7595,7 +7598,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7621,13 +7624,13 @@
         <v>69</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7656,10 +7659,10 @@
         <v>89</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7677,7 +7680,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7706,7 +7709,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7729,16 +7732,16 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -7788,7 +7791,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7817,7 +7820,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7843,10 +7846,10 @@
         <v>107</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7897,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -7906,7 +7909,7 @@
         <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>61</v>
@@ -7926,7 +7929,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8035,7 +8038,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8146,7 +8149,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8259,7 +8262,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8285,10 +8288,10 @@
         <v>69</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8318,10 +8321,10 @@
         <v>89</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8339,7 +8342,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>50</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8394,13 +8397,13 @@
         <v>63</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8450,7 +8453,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>50</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8505,10 +8508,10 @@
         <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8559,7 +8562,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -8588,7 +8591,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8614,10 +8617,10 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8668,7 +8671,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8697,7 +8700,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8723,10 +8726,10 @@
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8777,7 +8780,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8832,10 +8835,10 @@
         <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8886,7 +8889,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -8915,7 +8918,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8941,10 +8944,10 @@
         <v>107</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8995,7 +8998,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9004,7 +9007,7 @@
         <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>61</v>
@@ -9024,7 +9027,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9133,7 +9136,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9244,7 +9247,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9357,7 +9360,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9383,10 +9386,10 @@
         <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9437,7 +9440,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>50</v>
@@ -9466,7 +9469,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9492,10 +9495,10 @@
         <v>63</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9546,7 +9549,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -9575,7 +9578,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9601,13 +9604,13 @@
         <v>51</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9657,7 +9660,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9686,7 +9689,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9712,13 +9715,13 @@
         <v>94</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -9768,7 +9771,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -9797,7 +9800,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9820,16 +9823,16 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -9879,7 +9882,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -9911,7 +9914,7 @@
         <v>136</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>40</v>
@@ -10002,7 +10005,7 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
@@ -10019,7 +10022,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10128,7 +10131,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10239,7 +10242,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10352,7 +10355,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10378,10 +10381,10 @@
         <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10432,7 +10435,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10461,7 +10464,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10487,13 +10490,13 @@
         <v>63</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10543,7 +10546,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -10572,11 +10575,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10595,13 +10598,13 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10652,7 +10655,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -10664,16 +10667,16 @@
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>40</v>
@@ -10681,7 +10684,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10707,10 +10710,10 @@
         <v>107</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10761,7 +10764,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -10770,7 +10773,7 @@
         <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>61</v>
@@ -10790,7 +10793,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10899,7 +10902,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11010,7 +11013,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11123,7 +11126,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11149,13 +11152,13 @@
         <v>69</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11184,10 +11187,10 @@
         <v>89</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>40</v>
@@ -11205,7 +11208,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11234,7 +11237,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11257,16 +11260,16 @@
         <v>43</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11316,7 +11319,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11345,7 +11348,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11371,10 +11374,10 @@
         <v>107</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11425,7 +11428,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11434,7 +11437,7 @@
         <v>50</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>61</v>
@@ -11454,7 +11457,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11563,7 +11566,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11674,7 +11677,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11787,7 +11790,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11813,10 +11816,10 @@
         <v>69</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -11846,10 +11849,10 @@
         <v>89</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -11867,7 +11870,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -11896,7 +11899,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11922,13 +11925,13 @@
         <v>63</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -11978,7 +11981,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -12007,7 +12010,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12033,10 +12036,10 @@
         <v>51</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12087,7 +12090,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12116,7 +12119,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12142,10 +12145,10 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12196,7 +12199,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12225,7 +12228,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12251,10 +12254,10 @@
         <v>51</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12305,7 +12308,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12334,7 +12337,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12360,10 +12363,10 @@
         <v>51</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12414,7 +12417,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12443,7 +12446,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12469,10 +12472,10 @@
         <v>107</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -12523,7 +12526,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -12532,7 +12535,7 @@
         <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>61</v>
@@ -12552,7 +12555,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12661,7 +12664,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12772,7 +12775,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12885,7 +12888,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -12911,10 +12914,10 @@
         <v>51</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -12965,7 +12968,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>50</v>
@@ -12994,7 +12997,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13020,10 +13023,10 @@
         <v>63</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13074,7 +13077,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13103,7 +13106,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13129,13 +13132,13 @@
         <v>51</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -13185,7 +13188,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13214,7 +13217,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13240,13 +13243,13 @@
         <v>94</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13296,7 +13299,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13325,7 +13328,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13348,16 +13351,16 @@
         <v>43</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -13407,7 +13410,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13439,7 +13442,7 @@
         <v>136</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>40</v>
@@ -13530,7 +13533,7 @@
         <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>40</v>
@@ -13547,7 +13550,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13656,7 +13659,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -13767,7 +13770,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -13880,7 +13883,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -13906,10 +13909,10 @@
         <v>40</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -13960,7 +13963,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -13989,7 +13992,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14015,13 +14018,13 @@
         <v>63</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14071,7 +14074,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14100,7 +14103,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14123,13 +14126,13 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14180,7 +14183,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -14192,13 +14195,13 @@
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>40</v>
@@ -14209,7 +14212,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14235,10 +14238,10 @@
         <v>107</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -14289,7 +14292,7 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -14298,7 +14301,7 @@
         <v>50</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>61</v>
@@ -14318,7 +14321,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14427,7 +14430,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14538,7 +14541,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14651,7 +14654,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14677,13 +14680,13 @@
         <v>69</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -14712,10 +14715,10 @@
         <v>89</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>40</v>
@@ -14733,7 +14736,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -14762,7 +14765,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -14785,16 +14788,16 @@
         <v>43</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -14844,7 +14847,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -14873,7 +14876,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -14899,10 +14902,10 @@
         <v>107</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -14953,7 +14956,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -14962,7 +14965,7 @@
         <v>50</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>61</v>
@@ -14982,7 +14985,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15091,7 +15094,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -15202,7 +15205,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15315,7 +15318,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15341,10 +15344,10 @@
         <v>69</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -15374,10 +15377,10 @@
         <v>89</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>40</v>
@@ -15395,7 +15398,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>50</v>
@@ -15424,7 +15427,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15450,13 +15453,13 @@
         <v>63</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -15506,7 +15509,7 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>50</v>
@@ -15535,7 +15538,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15561,10 +15564,10 @@
         <v>51</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -15615,7 +15618,7 @@
         <v>40</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -15644,7 +15647,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15670,10 +15673,10 @@
         <v>94</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -15724,7 +15727,7 @@
         <v>40</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -15753,7 +15756,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15779,10 +15782,10 @@
         <v>51</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -15833,7 +15836,7 @@
         <v>40</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -15862,7 +15865,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -15888,10 +15891,10 @@
         <v>51</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -15942,7 +15945,7 @@
         <v>40</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -15971,7 +15974,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -15997,10 +16000,10 @@
         <v>107</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -16051,7 +16054,7 @@
         <v>40</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -16060,7 +16063,7 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>61</v>
@@ -16080,7 +16083,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16189,7 +16192,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16300,7 +16303,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16413,7 +16416,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16439,10 +16442,10 @@
         <v>51</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -16493,7 +16496,7 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>50</v>
@@ -16522,7 +16525,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16548,10 +16551,10 @@
         <v>63</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16602,7 +16605,7 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -16631,7 +16634,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16657,13 +16660,13 @@
         <v>51</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -16713,7 +16716,7 @@
         <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -16742,7 +16745,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16768,13 +16771,13 @@
         <v>94</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -16824,7 +16827,7 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -16853,7 +16856,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -16876,16 +16879,16 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -16935,7 +16938,7 @@
         <v>40</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -16967,7 +16970,7 @@
         <v>136</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>40</v>
@@ -17058,7 +17061,7 @@
         <v>40</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>40</v>
@@ -17075,7 +17078,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17184,7 +17187,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17295,7 +17298,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17408,7 +17411,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17434,10 +17437,10 @@
         <v>40</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -17488,7 +17491,7 @@
         <v>40</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -17517,7 +17520,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17543,13 +17546,13 @@
         <v>63</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17599,7 +17602,7 @@
         <v>40</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -17628,7 +17631,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -17651,13 +17654,13 @@
         <v>40</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17708,7 +17711,7 @@
         <v>40</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
@@ -17720,13 +17723,13 @@
         <v>40</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>40</v>
@@ -17737,7 +17740,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17763,10 +17766,10 @@
         <v>107</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -17817,7 +17820,7 @@
         <v>40</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -17826,7 +17829,7 @@
         <v>50</v>
       </c>
       <c r="AH152" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI152" t="s" s="2">
         <v>61</v>
@@ -17846,7 +17849,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -17955,7 +17958,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -18066,7 +18069,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -18179,7 +18182,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -18205,13 +18208,13 @@
         <v>69</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -18240,10 +18243,10 @@
         <v>89</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>40</v>
@@ -18261,7 +18264,7 @@
         <v>40</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -18290,7 +18293,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -18313,16 +18316,16 @@
         <v>43</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -18372,7 +18375,7 @@
         <v>40</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -18401,7 +18404,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -18427,10 +18430,10 @@
         <v>107</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -18481,7 +18484,7 @@
         <v>40</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -18490,7 +18493,7 @@
         <v>50</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI158" t="s" s="2">
         <v>61</v>
@@ -18510,7 +18513,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -18619,7 +18622,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -18730,7 +18733,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -18843,7 +18846,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -18869,10 +18872,10 @@
         <v>69</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -18902,10 +18905,10 @@
         <v>89</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>40</v>
@@ -18923,7 +18926,7 @@
         <v>40</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>50</v>
@@ -18952,7 +18955,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -18978,13 +18981,13 @@
         <v>63</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -19034,7 +19037,7 @@
         <v>40</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>50</v>
@@ -19063,7 +19066,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -19089,10 +19092,10 @@
         <v>51</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -19143,7 +19146,7 @@
         <v>40</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -19172,7 +19175,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -19198,10 +19201,10 @@
         <v>94</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -19252,7 +19255,7 @@
         <v>40</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -19281,7 +19284,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -19307,10 +19310,10 @@
         <v>51</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -19361,7 +19364,7 @@
         <v>40</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -19390,7 +19393,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -19416,10 +19419,10 @@
         <v>51</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -19470,7 +19473,7 @@
         <v>40</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -19499,7 +19502,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -19525,10 +19528,10 @@
         <v>107</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -19579,7 +19582,7 @@
         <v>40</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -19588,7 +19591,7 @@
         <v>50</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>61</v>
@@ -19608,7 +19611,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -19717,7 +19720,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -19828,7 +19831,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -19941,7 +19944,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -19967,10 +19970,10 @@
         <v>51</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -20021,7 +20024,7 @@
         <v>40</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -20050,7 +20053,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -20076,10 +20079,10 @@
         <v>63</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -20130,7 +20133,7 @@
         <v>40</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -20159,7 +20162,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -20185,13 +20188,13 @@
         <v>51</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -20241,7 +20244,7 @@
         <v>40</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -20270,7 +20273,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -20296,13 +20299,13 @@
         <v>94</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
@@ -20352,7 +20355,7 @@
         <v>40</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -20381,7 +20384,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -20404,16 +20407,16 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -20463,7 +20466,7 @@
         <v>40</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -20495,7 +20498,7 @@
         <v>136</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>40</v>
@@ -20586,7 +20589,7 @@
         <v>40</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>40</v>
@@ -20603,7 +20606,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -20712,7 +20715,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -20823,7 +20826,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -20936,7 +20939,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -20962,10 +20965,10 @@
         <v>40</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -21016,7 +21019,7 @@
         <v>40</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -21045,7 +21048,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -21071,13 +21074,13 @@
         <v>63</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -21127,7 +21130,7 @@
         <v>40</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -21156,7 +21159,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -21179,13 +21182,13 @@
         <v>40</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -21236,7 +21239,7 @@
         <v>40</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -21248,13 +21251,13 @@
         <v>40</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>40</v>
@@ -21265,7 +21268,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -21291,10 +21294,10 @@
         <v>107</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -21345,7 +21348,7 @@
         <v>40</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -21354,7 +21357,7 @@
         <v>50</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>61</v>
@@ -21374,7 +21377,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -21483,7 +21486,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -21594,7 +21597,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -21707,7 +21710,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -21733,13 +21736,13 @@
         <v>69</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
@@ -21768,10 +21771,10 @@
         <v>89</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>40</v>
@@ -21789,7 +21792,7 @@
         <v>40</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -21818,7 +21821,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -21841,16 +21844,16 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
@@ -21900,7 +21903,7 @@
         <v>40</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -21929,7 +21932,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -21955,10 +21958,10 @@
         <v>107</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -22009,7 +22012,7 @@
         <v>40</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -22018,7 +22021,7 @@
         <v>50</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>61</v>
@@ -22038,7 +22041,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -22147,7 +22150,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -22258,7 +22261,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -22371,7 +22374,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -22397,10 +22400,10 @@
         <v>69</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -22430,10 +22433,10 @@
         <v>89</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>40</v>
@@ -22451,7 +22454,7 @@
         <v>40</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>50</v>
@@ -22480,7 +22483,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -22506,13 +22509,13 @@
         <v>63</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
@@ -22562,7 +22565,7 @@
         <v>40</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>50</v>
@@ -22591,7 +22594,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -22617,10 +22620,10 @@
         <v>51</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -22671,7 +22674,7 @@
         <v>40</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -22700,7 +22703,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -22726,10 +22729,10 @@
         <v>94</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -22780,7 +22783,7 @@
         <v>40</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -22809,7 +22812,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -22835,10 +22838,10 @@
         <v>51</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -22889,7 +22892,7 @@
         <v>40</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -22918,7 +22921,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -22944,10 +22947,10 @@
         <v>51</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -22998,7 +23001,7 @@
         <v>40</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -23027,7 +23030,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -23053,10 +23056,10 @@
         <v>107</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -23107,7 +23110,7 @@
         <v>40</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -23116,7 +23119,7 @@
         <v>50</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI200" t="s" s="2">
         <v>61</v>
@@ -23136,7 +23139,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -23245,7 +23248,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -23356,7 +23359,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -23469,7 +23472,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -23495,10 +23498,10 @@
         <v>51</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -23549,7 +23552,7 @@
         <v>40</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>50</v>
@@ -23578,7 +23581,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -23604,10 +23607,10 @@
         <v>63</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -23658,7 +23661,7 @@
         <v>40</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -23687,7 +23690,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -23713,13 +23716,13 @@
         <v>51</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
@@ -23769,7 +23772,7 @@
         <v>40</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -23798,7 +23801,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -23824,13 +23827,13 @@
         <v>94</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" t="s" s="2">
@@ -23880,7 +23883,7 @@
         <v>40</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>41</v>
@@ -23909,7 +23912,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -23932,16 +23935,16 @@
         <v>43</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
@@ -23991,7 +23994,7 @@
         <v>40</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -24023,7 +24026,7 @@
         <v>136</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>40</v>
@@ -24114,7 +24117,7 @@
         <v>40</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>40</v>
@@ -24131,7 +24134,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -24240,7 +24243,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -24351,7 +24354,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -24464,7 +24467,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -24490,10 +24493,10 @@
         <v>40</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -24544,7 +24547,7 @@
         <v>40</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -24573,7 +24576,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -24599,13 +24602,13 @@
         <v>63</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
@@ -24655,7 +24658,7 @@
         <v>40</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -24684,7 +24687,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -24707,16 +24710,16 @@
         <v>40</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
@@ -24766,7 +24769,7 @@
         <v>40</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -24778,16 +24781,16 @@
         <v>40</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>40</v>
@@ -24795,7 +24798,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -24821,10 +24824,10 @@
         <v>107</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -24875,7 +24878,7 @@
         <v>40</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -24884,7 +24887,7 @@
         <v>50</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>61</v>
@@ -24904,7 +24907,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -25013,7 +25016,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -25124,7 +25127,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -25237,7 +25240,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -25263,13 +25266,13 @@
         <v>69</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
@@ -25298,10 +25301,10 @@
         <v>89</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>40</v>
@@ -25319,7 +25322,7 @@
         <v>40</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -25348,7 +25351,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -25371,16 +25374,16 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
@@ -25430,7 +25433,7 @@
         <v>40</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -25459,7 +25462,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -25485,10 +25488,10 @@
         <v>107</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -25539,7 +25542,7 @@
         <v>40</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -25548,7 +25551,7 @@
         <v>50</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>61</v>
@@ -25568,7 +25571,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -25677,7 +25680,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -25788,7 +25791,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -25901,7 +25904,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -25927,10 +25930,10 @@
         <v>69</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -25960,10 +25963,10 @@
         <v>89</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>40</v>
@@ -25981,7 +25984,7 @@
         <v>40</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -26010,7 +26013,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -26036,13 +26039,13 @@
         <v>63</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
@@ -26092,7 +26095,7 @@
         <v>40</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>50</v>
@@ -26121,7 +26124,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -26147,10 +26150,10 @@
         <v>51</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -26201,7 +26204,7 @@
         <v>40</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -26230,7 +26233,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -26256,10 +26259,10 @@
         <v>94</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -26310,7 +26313,7 @@
         <v>40</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -26339,7 +26342,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -26365,10 +26368,10 @@
         <v>51</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -26419,7 +26422,7 @@
         <v>40</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -26448,7 +26451,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -26474,10 +26477,10 @@
         <v>51</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -26528,7 +26531,7 @@
         <v>40</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -26557,7 +26560,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -26583,10 +26586,10 @@
         <v>107</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -26637,7 +26640,7 @@
         <v>40</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -26646,7 +26649,7 @@
         <v>50</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>61</v>
@@ -26666,7 +26669,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -26775,7 +26778,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -26886,7 +26889,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -26999,7 +27002,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -27025,10 +27028,10 @@
         <v>51</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -27079,7 +27082,7 @@
         <v>40</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>50</v>
@@ -27108,7 +27111,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -27134,10 +27137,10 @@
         <v>63</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -27188,7 +27191,7 @@
         <v>40</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -27217,7 +27220,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -27243,13 +27246,13 @@
         <v>51</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
@@ -27299,7 +27302,7 @@
         <v>40</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -27328,7 +27331,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -27354,13 +27357,13 @@
         <v>94</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
@@ -27410,7 +27413,7 @@
         <v>40</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -27439,7 +27442,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -27462,16 +27465,16 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
@@ -27521,7 +27524,7 @@
         <v>40</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -27550,7 +27553,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -27573,19 +27576,19 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>40</v>
@@ -27634,7 +27637,7 @@
         <v>40</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -462,7 +462,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource.resolve()}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -931,7 +931,7 @@
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
+    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
   </si>
   <si>
     <t>VXU_V04</t>
@@ -11512,7 +11512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>190</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>74</v>
@@ -18568,7 +18568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>190</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>83</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCDocument.xlsx
+++ b/StructureDefinition-DDCCDocument.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
